--- a/Lab01_alw245/sins.xlsx
+++ b/Lab01_alw245/sins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\School\Fall 2021\TA401\Lab01_alw245\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\School\Fall 2021\TA401\CMPINF-Lab-Materials\Lab01_alw245\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{185ABD16-C607-44DC-AAA7-E4008860C2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0387297A-65A7-411E-955D-C8E846C08947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{BD678546-BF47-4427-BB34-2EB4307A5EEB}"/>
+    <workbookView xWindow="24240" yWindow="-630" windowWidth="15375" windowHeight="7875" xr2:uid="{BD678546-BF47-4427-BB34-2EB4307A5EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +82,3049 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$361</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="361"/>
+                <c:pt idx="0">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-168</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-167</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-163</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-157</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-155</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-152</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-151</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-147</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-146</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-145</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-142</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-139</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-137</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-136</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-134</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-133</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-132</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-131</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-129</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-127</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-123</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-122</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-121</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-117</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-116</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-115</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-114</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-112</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-107</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-103</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-102</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-101</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-98</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-93</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-62</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$361</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="361"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>-1.22464679914735E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7452406437283401E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4899496702500699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.23359562429438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.9756473744125497E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.7155742747658596E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.104528463267653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.121869343405147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.13917310096006499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15643446504023001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17364817766693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.190808995376544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20791169081775901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.224951054343864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.24192189559966701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.25881904510252102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.275637355816999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.29237170472273699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.30901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.32556815445715698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.34202014332566799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.35836794954529999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.37460659341591201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.39073112848927399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.40673664307579999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.422618261740699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.43837114678907702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.45399049973954603</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.46947156278589097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.484809620246337</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.51503807491005404</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.52991926423320401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.54463903501502697</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.55919290347074602</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.58778525229247303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.60181502315204805</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.61566147532565796</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.62932039104983695</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.64278760968653903</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.65605902899050705</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.66913060635885802</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.68199836006249803</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.69465837045899703</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.70710678118654702</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.71933980033865097</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.73135370161917002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.74314482547739402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.75470958022277101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.77714596145697101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.78801075360672201</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.79863551004729205</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.80901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.81915204428899202</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.82903757255504096</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.83867056794542305</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.84804809615642596</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.857167300702112</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.86602540378443804</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.87461970713939496</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.88294759285892699</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.89100652418836701</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.89879404629916604</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.90630778703665005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.91354545764260098</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.92050485345244004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.92718385456678698</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.93358042649720097</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.93969262078590798</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.94551857559931596</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.95105651629515298</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.95630475596303499</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.96126169593831801</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.96592582628906798</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.97029572627599603</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.97437006478523502</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.97814760073380502</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.98162718344766398</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.98768834059513699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.99026806874157003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.99254615164132198</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.99452189536827296</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.99619469809174499</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.99756405025982398</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.99862953475457295</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.99939082701909498</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.99984769515639105</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.99984769515639105</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.99939082701909498</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.99862953475457295</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.99756405025982398</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.99619469809174499</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.99452189536827296</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.99254615164132198</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.99026806874157003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.98768834059513699</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.98162718344766398</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.97814760073380502</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.97437006478523502</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.97029572627599603</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.96592582628906798</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.96126169593831801</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.95630475596303499</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.95105651629515298</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.94551857559931596</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.93969262078590798</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.93358042649720097</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.92718385456678698</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.92050485345244004</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.91354545764259998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.90630778703664905</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.89879404629916704</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.89100652418836701</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.88294759285892599</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.87461970713939496</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.86602540378443804</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.857167300702112</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.84804809615642596</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.83867056794542305</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.82903757255504096</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.81915204428899102</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.80901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.79863551004729205</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.78801075360672201</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.77714596145697001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.75470958022277201</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.74314482547739402</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.73135370161917002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.71933980033865097</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.70710678118654702</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.69465837045899703</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.68199836006249803</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.66913060635885802</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.65605902899050705</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.64278760968653903</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.62932039104983695</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.61566147532565796</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.60181502315204805</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.58778525229247303</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.55919290347074602</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.54463903501502697</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.52991926423320401</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.51503807491005404</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.484809620246337</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.46947156278588997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.45399049973954603</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.43837114678907702</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.422618261740699</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.40673664307579999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.39073112848927299</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.37460659341591201</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.35836794954529999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.34202014332566799</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.32556815445715598</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.30901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.29237170472273599</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.275637355816999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.25881904510252002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.24192189559966701</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.224951054343865</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.20791169081775901</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.190808995376544</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.17364817766693</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.15643446504023001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.13917310096006499</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.121869343405147</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.104528463267653</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-8.7155742747658096E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-6.9756473744125302E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-5.23359562429438E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-3.48994967025009E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.7452406437283501E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.7452406437283501E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.48994967025009E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.23359562429438E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.9756473744125302E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.7155742747658096E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.104528463267653</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.121869343405147</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.13917310096006499</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.15643446504023001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.17364817766693</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.190808995376544</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.20791169081775901</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.224951054343865</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.24192189559966701</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.25881904510252002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.275637355816999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.29237170472273599</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.30901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.32556815445715598</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.34202014332566799</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.35836794954529999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.37460659341591201</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.39073112848927299</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.40673664307579999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.422618261740699</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.43837114678907702</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.45399049973954603</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.46947156278588997</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.484809620246337</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.51503807491005404</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.52991926423320401</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.54463903501502697</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.55919290347074602</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.58778525229247303</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.60181502315204805</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.61566147532565796</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.62932039104983695</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.64278760968653903</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.65605902899050705</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.66913060635885802</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.68199836006249803</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.69465837045899703</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.70710678118654702</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.71933980033865097</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.73135370161917002</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.74314482547739402</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.75470958022277201</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.77714596145697001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.78801075360672201</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.79863551004729205</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.80901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.81915204428899102</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.82903757255504096</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.83867056794542305</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.84804809615642596</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.857167300702112</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.86602540378443804</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.87461970713939496</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.88294759285892599</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.89100652418836701</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.89879404629916704</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.90630778703664905</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.91354545764259998</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.92050485345244004</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.92718385456678698</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.93358042649720097</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.93969262078590798</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.94551857559931596</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.95105651629515298</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.95630475596303499</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.96126169593831801</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.96592582628906798</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.97029572627599603</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.97437006478523502</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.97814760073380502</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.98162718344766398</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.98768834059513699</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.99026806874157003</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.99254615164132198</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.99452189536827296</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.99619469809174499</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.99756405025982398</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.99862953475457295</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.99939082701909498</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.99984769515639105</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.99984769515639105</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.99939082701909498</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.99862953475457295</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.99756405025982398</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.99619469809174499</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.99452189536827296</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.99254615164132198</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.99026806874157003</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.98768834059513699</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.98162718344766398</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.97814760073380502</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.97437006478523502</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.97029572627599603</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.96592582628906798</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.96126169593831801</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.95630475596303499</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.95105651629515298</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.94551857559931596</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.93969262078590798</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.93358042649720097</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.92718385456678698</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.92050485345244004</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.91354545764260098</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.90630778703665005</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.89879404629916604</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.89100652418836701</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.88294759285892699</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.87461970713939496</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.86602540378443804</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.857167300702112</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.84804809615642596</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.83867056794542305</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.82903757255504096</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.81915204428899202</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.80901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.79863551004729205</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.78801075360672201</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.77714596145697101</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.75470958022277101</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.74314482547739402</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.73135370161917002</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.71933980033865097</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.70710678118654702</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.69465837045899703</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.68199836006249803</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.66913060635885802</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.65605902899050705</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.64278760968653903</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.62932039104983695</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.61566147532565796</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.60181502315204805</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.58778525229247303</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.55919290347074602</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.54463903501502697</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.52991926423320401</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.51503807491005404</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.484809620246337</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.46947156278589097</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.45399049973954603</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.43837114678907702</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.422618261740699</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.40673664307579999</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.39073112848927399</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.37460659341591201</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.35836794954529999</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.34202014332566799</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.32556815445715698</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.30901699437494701</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.29237170472273699</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.275637355816999</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.25881904510252102</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.24192189559966701</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.224951054343864</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.20791169081775901</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.190808995376544</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.17364817766693</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.15643446504023001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.13917310096006499</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.121869343405147</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.104528463267653</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>8.7155742747658596E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>6.9756473744125497E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>5.23359562429438E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3.4899496702500699E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.7452406437283401E-2</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="0.00E+00">
+                  <c:v>1.22464679914735E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B34A-4D71-ADBC-F8634F3AEE7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1479354895"/>
+        <c:axId val="1479356975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1479354895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1479356975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1479356975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1479354895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>76206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640E9732-D733-4054-BCC8-3E702591DADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +3424,3494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF445116-96C3-47D7-B49A-D77FA6488E1D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection sqref="A1:B361"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-180</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-1.22464679914735E-16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A1 +1</f>
+        <v>-179</v>
+      </c>
+      <c r="B2">
+        <v>-1.7452406437283401E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">A2 +1</f>
+        <v>-178</v>
+      </c>
+      <c r="B3">
+        <v>-3.4899496702500699E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>-177</v>
+      </c>
+      <c r="B4">
+        <v>-5.23359562429438E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>-176</v>
+      </c>
+      <c r="B5">
+        <v>-6.9756473744125497E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>-175</v>
+      </c>
+      <c r="B6">
+        <v>-8.7155742747658596E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>-174</v>
+      </c>
+      <c r="B7">
+        <v>-0.104528463267653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>-173</v>
+      </c>
+      <c r="B8">
+        <v>-0.121869343405147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>-172</v>
+      </c>
+      <c r="B9">
+        <v>-0.13917310096006499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>-171</v>
+      </c>
+      <c r="B10">
+        <v>-0.15643446504023001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>-170</v>
+      </c>
+      <c r="B11">
+        <v>-0.17364817766693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>-169</v>
+      </c>
+      <c r="B12">
+        <v>-0.190808995376544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>-168</v>
+      </c>
+      <c r="B13">
+        <v>-0.20791169081775901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>-167</v>
+      </c>
+      <c r="B14">
+        <v>-0.224951054343864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>-166</v>
+      </c>
+      <c r="B15">
+        <v>-0.24192189559966701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>-165</v>
+      </c>
+      <c r="B16">
+        <v>-0.25881904510252102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>-164</v>
+      </c>
+      <c r="B17">
+        <v>-0.275637355816999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>-163</v>
+      </c>
+      <c r="B18">
+        <v>-0.29237170472273699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>-162</v>
+      </c>
+      <c r="B19">
+        <v>-0.30901699437494701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>-161</v>
+      </c>
+      <c r="B20">
+        <v>-0.32556815445715698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>-160</v>
+      </c>
+      <c r="B21">
+        <v>-0.34202014332566799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>-159</v>
+      </c>
+      <c r="B22">
+        <v>-0.35836794954529999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>-158</v>
+      </c>
+      <c r="B23">
+        <v>-0.37460659341591201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>-157</v>
+      </c>
+      <c r="B24">
+        <v>-0.39073112848927399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>-156</v>
+      </c>
+      <c r="B25">
+        <v>-0.40673664307579999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>-155</v>
+      </c>
+      <c r="B26">
+        <v>-0.422618261740699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>-154</v>
+      </c>
+      <c r="B27">
+        <v>-0.43837114678907702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>-153</v>
+      </c>
+      <c r="B28">
+        <v>-0.45399049973954603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>-152</v>
+      </c>
+      <c r="B29">
+        <v>-0.46947156278589097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>-151</v>
+      </c>
+      <c r="B30">
+        <v>-0.484809620246337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="B31">
+        <v>-0.499999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>-149</v>
+      </c>
+      <c r="B32">
+        <v>-0.51503807491005404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>-148</v>
+      </c>
+      <c r="B33">
+        <v>-0.52991926423320401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>-147</v>
+      </c>
+      <c r="B34">
+        <v>-0.54463903501502697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>-146</v>
+      </c>
+      <c r="B35">
+        <v>-0.55919290347074602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>-145</v>
+      </c>
+      <c r="B36">
+        <v>-0.57357643635104605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>-144</v>
+      </c>
+      <c r="B37">
+        <v>-0.58778525229247303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>-143</v>
+      </c>
+      <c r="B38">
+        <v>-0.60181502315204805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>-142</v>
+      </c>
+      <c r="B39">
+        <v>-0.61566147532565796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>-141</v>
+      </c>
+      <c r="B40">
+        <v>-0.62932039104983695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>-140</v>
+      </c>
+      <c r="B41">
+        <v>-0.64278760968653903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>-139</v>
+      </c>
+      <c r="B42">
+        <v>-0.65605902899050705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>-138</v>
+      </c>
+      <c r="B43">
+        <v>-0.66913060635885802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>-137</v>
+      </c>
+      <c r="B44">
+        <v>-0.68199836006249803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>-136</v>
+      </c>
+      <c r="B45">
+        <v>-0.69465837045899703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>-135</v>
+      </c>
+      <c r="B46">
+        <v>-0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>-134</v>
+      </c>
+      <c r="B47">
+        <v>-0.71933980033865097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>-133</v>
+      </c>
+      <c r="B48">
+        <v>-0.73135370161917002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>-132</v>
+      </c>
+      <c r="B49">
+        <v>-0.74314482547739402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>-131</v>
+      </c>
+      <c r="B50">
+        <v>-0.75470958022277101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>-130</v>
+      </c>
+      <c r="B51">
+        <v>-0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>-129</v>
+      </c>
+      <c r="B52">
+        <v>-0.77714596145697101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>-128</v>
+      </c>
+      <c r="B53">
+        <v>-0.78801075360672201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>-127</v>
+      </c>
+      <c r="B54">
+        <v>-0.79863551004729205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>-126</v>
+      </c>
+      <c r="B55">
+        <v>-0.80901699437494701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>-125</v>
+      </c>
+      <c r="B56">
+        <v>-0.81915204428899202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>-124</v>
+      </c>
+      <c r="B57">
+        <v>-0.82903757255504096</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>-123</v>
+      </c>
+      <c r="B58">
+        <v>-0.83867056794542305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>-122</v>
+      </c>
+      <c r="B59">
+        <v>-0.84804809615642596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>-121</v>
+      </c>
+      <c r="B60">
+        <v>-0.857167300702112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+      <c r="B61">
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>-119</v>
+      </c>
+      <c r="B62">
+        <v>-0.87461970713939496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>-118</v>
+      </c>
+      <c r="B63">
+        <v>-0.88294759285892699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>-117</v>
+      </c>
+      <c r="B64">
+        <v>-0.89100652418836701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>-116</v>
+      </c>
+      <c r="B65">
+        <v>-0.89879404629916604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>-115</v>
+      </c>
+      <c r="B66">
+        <v>-0.90630778703665005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="1">A66 +1</f>
+        <v>-114</v>
+      </c>
+      <c r="B67">
+        <v>-0.91354545764260098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>-113</v>
+      </c>
+      <c r="B68">
+        <v>-0.92050485345244004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>-112</v>
+      </c>
+      <c r="B69">
+        <v>-0.92718385456678698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>-111</v>
+      </c>
+      <c r="B70">
+        <v>-0.93358042649720097</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>-110</v>
+      </c>
+      <c r="B71">
+        <v>-0.93969262078590798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>-109</v>
+      </c>
+      <c r="B72">
+        <v>-0.94551857559931596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>-108</v>
+      </c>
+      <c r="B73">
+        <v>-0.95105651629515298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>-107</v>
+      </c>
+      <c r="B74">
+        <v>-0.95630475596303499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>-106</v>
+      </c>
+      <c r="B75">
+        <v>-0.96126169593831801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>-105</v>
+      </c>
+      <c r="B76">
+        <v>-0.96592582628906798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>-104</v>
+      </c>
+      <c r="B77">
+        <v>-0.97029572627599603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>-103</v>
+      </c>
+      <c r="B78">
+        <v>-0.97437006478523502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>-102</v>
+      </c>
+      <c r="B79">
+        <v>-0.97814760073380502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>-101</v>
+      </c>
+      <c r="B80">
+        <v>-0.98162718344766398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="B81">
+        <v>-0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>-99</v>
+      </c>
+      <c r="B82">
+        <v>-0.98768834059513699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>-98</v>
+      </c>
+      <c r="B83">
+        <v>-0.99026806874157003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>-97</v>
+      </c>
+      <c r="B84">
+        <v>-0.99254615164132198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="B85">
+        <v>-0.99452189536827296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>-95</v>
+      </c>
+      <c r="B86">
+        <v>-0.99619469809174499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="B87">
+        <v>-0.99756405025982398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>-93</v>
+      </c>
+      <c r="B88">
+        <v>-0.99862953475457295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="B89">
+        <v>-0.99939082701909498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>-91</v>
+      </c>
+      <c r="B90">
+        <v>-0.99984769515639105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+      <c r="B91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>-89</v>
+      </c>
+      <c r="B92">
+        <v>-0.99984769515639105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>-88</v>
+      </c>
+      <c r="B93">
+        <v>-0.99939082701909498</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>-87</v>
+      </c>
+      <c r="B94">
+        <v>-0.99862953475457295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>-86</v>
+      </c>
+      <c r="B95">
+        <v>-0.99756405025982398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>-85</v>
+      </c>
+      <c r="B96">
+        <v>-0.99619469809174499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>-84</v>
+      </c>
+      <c r="B97">
+        <v>-0.99452189536827296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>-83</v>
+      </c>
+      <c r="B98">
+        <v>-0.99254615164132198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>-82</v>
+      </c>
+      <c r="B99">
+        <v>-0.99026806874157003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>-81</v>
+      </c>
+      <c r="B100">
+        <v>-0.98768834059513699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>-80</v>
+      </c>
+      <c r="B101">
+        <v>-0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>-79</v>
+      </c>
+      <c r="B102">
+        <v>-0.98162718344766398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>-78</v>
+      </c>
+      <c r="B103">
+        <v>-0.97814760073380502</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>-77</v>
+      </c>
+      <c r="B104">
+        <v>-0.97437006478523502</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>-76</v>
+      </c>
+      <c r="B105">
+        <v>-0.97029572627599603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>-75</v>
+      </c>
+      <c r="B106">
+        <v>-0.96592582628906798</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>-74</v>
+      </c>
+      <c r="B107">
+        <v>-0.96126169593831801</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>-73</v>
+      </c>
+      <c r="B108">
+        <v>-0.95630475596303499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>-72</v>
+      </c>
+      <c r="B109">
+        <v>-0.95105651629515298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>-71</v>
+      </c>
+      <c r="B110">
+        <v>-0.94551857559931596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>-70</v>
+      </c>
+      <c r="B111">
+        <v>-0.93969262078590798</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>-69</v>
+      </c>
+      <c r="B112">
+        <v>-0.93358042649720097</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>-68</v>
+      </c>
+      <c r="B113">
+        <v>-0.92718385456678698</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>-67</v>
+      </c>
+      <c r="B114">
+        <v>-0.92050485345244004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>-66</v>
+      </c>
+      <c r="B115">
+        <v>-0.91354545764259998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>-65</v>
+      </c>
+      <c r="B116">
+        <v>-0.90630778703664905</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>-64</v>
+      </c>
+      <c r="B117">
+        <v>-0.89879404629916704</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>-63</v>
+      </c>
+      <c r="B118">
+        <v>-0.89100652418836701</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>-62</v>
+      </c>
+      <c r="B119">
+        <v>-0.88294759285892599</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="B120">
+        <v>-0.87461970713939496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="B121">
+        <v>-0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+      <c r="B122">
+        <v>-0.857167300702112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>-58</v>
+      </c>
+      <c r="B123">
+        <v>-0.84804809615642596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>-57</v>
+      </c>
+      <c r="B124">
+        <v>-0.83867056794542305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>-56</v>
+      </c>
+      <c r="B125">
+        <v>-0.82903757255504096</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>-55</v>
+      </c>
+      <c r="B126">
+        <v>-0.81915204428899102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>-54</v>
+      </c>
+      <c r="B127">
+        <v>-0.80901699437494701</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+      <c r="B128">
+        <v>-0.79863551004729205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>-52</v>
+      </c>
+      <c r="B129">
+        <v>-0.78801075360672201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>-51</v>
+      </c>
+      <c r="B130">
+        <v>-0.77714596145697001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ref="A131:A194" si="2">A130 +1</f>
+        <v>-50</v>
+      </c>
+      <c r="B131">
+        <v>-0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>-49</v>
+      </c>
+      <c r="B132">
+        <v>-0.75470958022277201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>-48</v>
+      </c>
+      <c r="B133">
+        <v>-0.74314482547739402</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>-47</v>
+      </c>
+      <c r="B134">
+        <v>-0.73135370161917002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>-46</v>
+      </c>
+      <c r="B135">
+        <v>-0.71933980033865097</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>-45</v>
+      </c>
+      <c r="B136">
+        <v>-0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>-44</v>
+      </c>
+      <c r="B137">
+        <v>-0.69465837045899703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>-43</v>
+      </c>
+      <c r="B138">
+        <v>-0.68199836006249803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>-42</v>
+      </c>
+      <c r="B139">
+        <v>-0.66913060635885802</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>-41</v>
+      </c>
+      <c r="B140">
+        <v>-0.65605902899050705</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
+      <c r="B141">
+        <v>-0.64278760968653903</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>-39</v>
+      </c>
+      <c r="B142">
+        <v>-0.62932039104983695</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>-38</v>
+      </c>
+      <c r="B143">
+        <v>-0.61566147532565796</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>-37</v>
+      </c>
+      <c r="B144">
+        <v>-0.60181502315204805</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
+      <c r="B145">
+        <v>-0.58778525229247303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>-35</v>
+      </c>
+      <c r="B146">
+        <v>-0.57357643635104605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>-34</v>
+      </c>
+      <c r="B147">
+        <v>-0.55919290347074602</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>-33</v>
+      </c>
+      <c r="B148">
+        <v>-0.54463903501502697</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>-32</v>
+      </c>
+      <c r="B149">
+        <v>-0.52991926423320401</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>-31</v>
+      </c>
+      <c r="B150">
+        <v>-0.51503807491005404</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+      <c r="B151">
+        <v>-0.499999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>-29</v>
+      </c>
+      <c r="B152">
+        <v>-0.484809620246337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>-28</v>
+      </c>
+      <c r="B153">
+        <v>-0.46947156278588997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>-27</v>
+      </c>
+      <c r="B154">
+        <v>-0.45399049973954603</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>-26</v>
+      </c>
+      <c r="B155">
+        <v>-0.43837114678907702</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+      <c r="B156">
+        <v>-0.422618261740699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>-24</v>
+      </c>
+      <c r="B157">
+        <v>-0.40673664307579999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>-23</v>
+      </c>
+      <c r="B158">
+        <v>-0.39073112848927299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>-22</v>
+      </c>
+      <c r="B159">
+        <v>-0.37460659341591201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>-21</v>
+      </c>
+      <c r="B160">
+        <v>-0.35836794954529999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="B161">
+        <v>-0.34202014332566799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>-19</v>
+      </c>
+      <c r="B162">
+        <v>-0.32556815445715598</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+      <c r="B163">
+        <v>-0.30901699437494701</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>-17</v>
+      </c>
+      <c r="B164">
+        <v>-0.29237170472273599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="B165">
+        <v>-0.275637355816999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="B166">
+        <v>-0.25881904510252002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="B167">
+        <v>-0.24192189559966701</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="B168">
+        <v>-0.224951054343865</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="B169">
+        <v>-0.20791169081775901</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="B170">
+        <v>-0.190808995376544</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="B171">
+        <v>-0.17364817766693</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="B172">
+        <v>-0.15643446504023001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="B173">
+        <v>-0.13917310096006499</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="B174">
+        <v>-0.121869343405147</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="B175">
+        <v>-0.104528463267653</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="B176">
+        <v>-8.7155742747658096E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="B177">
+        <v>-6.9756473744125302E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="B178">
+        <v>-5.23359562429438E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="B179">
+        <v>-3.48994967025009E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="B180">
+        <v>-1.7452406437283501E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>1.7452406437283501E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>3.48994967025009E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B184">
+        <v>5.23359562429438E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>6.9756473744125302E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B186">
+        <v>8.7155742747658096E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>0.104528463267653</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>0.121869343405147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>0.13917310096006499</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B190">
+        <v>0.15643446504023001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>0.17364817766693</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B192">
+        <v>0.190808995376544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B193">
+        <v>0.20791169081775901</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B194">
+        <v>0.224951054343865</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" ref="A195:A258" si="3">A194 +1</f>
+        <v>14</v>
+      </c>
+      <c r="B195">
+        <v>0.24192189559966701</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B196">
+        <v>0.25881904510252002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B197">
+        <v>0.275637355816999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B198">
+        <v>0.29237170472273599</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B199">
+        <v>0.30901699437494701</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B200">
+        <v>0.32556815445715598</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B201">
+        <v>0.34202014332566799</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B202">
+        <v>0.35836794954529999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B203">
+        <v>0.37460659341591201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B204">
+        <v>0.39073112848927299</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B205">
+        <v>0.40673664307579999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B206">
+        <v>0.422618261740699</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B207">
+        <v>0.43837114678907702</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B208">
+        <v>0.45399049973954603</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B209">
+        <v>0.46947156278588997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B210">
+        <v>0.484809620246337</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B211">
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B212">
+        <v>0.51503807491005404</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B213">
+        <v>0.52991926423320401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B214">
+        <v>0.54463903501502697</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B215">
+        <v>0.55919290347074602</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B216">
+        <v>0.57357643635104605</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B217">
+        <v>0.58778525229247303</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B218">
+        <v>0.60181502315204805</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B219">
+        <v>0.61566147532565796</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B220">
+        <v>0.62932039104983695</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B221">
+        <v>0.64278760968653903</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B222">
+        <v>0.65605902899050705</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B223">
+        <v>0.66913060635885802</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B224">
+        <v>0.68199836006249803</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B225">
+        <v>0.69465837045899703</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B226">
+        <v>0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B227">
+        <v>0.71933980033865097</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B228">
+        <v>0.73135370161917002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B229">
+        <v>0.74314482547739402</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B230">
+        <v>0.75470958022277201</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B231">
+        <v>0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B232">
+        <v>0.77714596145697001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B233">
+        <v>0.78801075360672201</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B234">
+        <v>0.79863551004729205</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B235">
+        <v>0.80901699437494701</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B236">
+        <v>0.81915204428899102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B237">
+        <v>0.82903757255504096</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B238">
+        <v>0.83867056794542305</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B239">
+        <v>0.84804809615642596</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B240">
+        <v>0.857167300702112</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B241">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B242">
+        <v>0.87461970713939496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B243">
+        <v>0.88294759285892599</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B244">
+        <v>0.89100652418836701</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B245">
+        <v>0.89879404629916704</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B246">
+        <v>0.90630778703664905</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B247">
+        <v>0.91354545764259998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B248">
+        <v>0.92050485345244004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B249">
+        <v>0.92718385456678698</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B250">
+        <v>0.93358042649720097</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B251">
+        <v>0.93969262078590798</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B252">
+        <v>0.94551857559931596</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B253">
+        <v>0.95105651629515298</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B254">
+        <v>0.95630475596303499</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B255">
+        <v>0.96126169593831801</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B256">
+        <v>0.96592582628906798</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B257">
+        <v>0.97029572627599603</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B258">
+        <v>0.97437006478523502</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" ref="A259:A322" si="4">A258 +1</f>
+        <v>78</v>
+      </c>
+      <c r="B259">
+        <v>0.97814760073380502</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="B260">
+        <v>0.98162718344766398</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B261">
+        <v>0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="B262">
+        <v>0.98768834059513699</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B263">
+        <v>0.99026806874157003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B264">
+        <v>0.99254615164132198</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B265">
+        <v>0.99452189536827296</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B266">
+        <v>0.99619469809174499</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B267">
+        <v>0.99756405025982398</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B268">
+        <v>0.99862953475457295</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B269">
+        <v>0.99939082701909498</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B270">
+        <v>0.99984769515639105</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="B272">
+        <v>0.99984769515639105</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="B273">
+        <v>0.99939082701909498</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="B274">
+        <v>0.99862953475457295</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B275">
+        <v>0.99756405025982398</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B276">
+        <v>0.99619469809174499</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B277">
+        <v>0.99452189536827296</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B278">
+        <v>0.99254615164132198</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B279">
+        <v>0.99026806874157003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B280">
+        <v>0.98768834059513699</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B281">
+        <v>0.98480775301220802</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B282">
+        <v>0.98162718344766398</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B283">
+        <v>0.97814760073380502</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B284">
+        <v>0.97437006478523502</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B285">
+        <v>0.97029572627599603</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B286">
+        <v>0.96592582628906798</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B287">
+        <v>0.96126169593831801</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B288">
+        <v>0.95630475596303499</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B289">
+        <v>0.95105651629515298</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B290">
+        <v>0.94551857559931596</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B291">
+        <v>0.93969262078590798</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B292">
+        <v>0.93358042649720097</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B293">
+        <v>0.92718385456678698</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B294">
+        <v>0.92050485345244004</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B295">
+        <v>0.91354545764260098</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B296">
+        <v>0.90630778703665005</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="B297">
+        <v>0.89879404629916604</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B298">
+        <v>0.89100652418836701</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B299">
+        <v>0.88294759285892699</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B300">
+        <v>0.87461970713939496</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B301">
+        <v>0.86602540378443804</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="B302">
+        <v>0.857167300702112</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B303">
+        <v>0.84804809615642596</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B304">
+        <v>0.83867056794542305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="B305">
+        <v>0.82903757255504096</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="B306">
+        <v>0.81915204428899202</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B307">
+        <v>0.80901699437494701</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="B308">
+        <v>0.79863551004729205</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B309">
+        <v>0.78801075360672201</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="B310">
+        <v>0.77714596145697101</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B311">
+        <v>0.76604444311897801</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="B312">
+        <v>0.75470958022277101</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="B313">
+        <v>0.74314482547739402</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <f t="shared" si="4"/>
+        <v>133</v>
+      </c>
+      <c r="B314">
+        <v>0.73135370161917002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="B315">
+        <v>0.71933980033865097</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B316">
+        <v>0.70710678118654702</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B317">
+        <v>0.69465837045899703</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="B318">
+        <v>0.68199836006249803</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="B319">
+        <v>0.66913060635885802</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="B320">
+        <v>0.65605902899050705</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B321">
+        <v>0.64278760968653903</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="B322">
+        <v>0.62932039104983695</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f t="shared" ref="A323:A361" si="5">A322 +1</f>
+        <v>142</v>
+      </c>
+      <c r="B323">
+        <v>0.61566147532565796</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="B324">
+        <v>0.60181502315204805</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="B325">
+        <v>0.58778525229247303</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="B326">
+        <v>0.57357643635104605</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+      <c r="B327">
+        <v>0.55919290347074602</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="B328">
+        <v>0.54463903501502697</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+      <c r="B329">
+        <v>0.52991926423320401</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+      <c r="B330">
+        <v>0.51503807491005404</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="B331">
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="B332">
+        <v>0.484809620246337</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="B333">
+        <v>0.46947156278589097</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="B334">
+        <v>0.45399049973954603</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="B335">
+        <v>0.43837114678907702</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="B336">
+        <v>0.422618261740699</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="B337">
+        <v>0.40673664307579999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="B338">
+        <v>0.39073112848927399</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+      <c r="B339">
+        <v>0.37460659341591201</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="B340">
+        <v>0.35836794954529999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="B341">
+        <v>0.34202014332566799</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="B342">
+        <v>0.32556815445715698</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="B343">
+        <v>0.30901699437494701</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="B344">
+        <v>0.29237170472273699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+      <c r="B345">
+        <v>0.275637355816999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+      <c r="B346">
+        <v>0.25881904510252102</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="B347">
+        <v>0.24192189559966701</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="B348">
+        <v>0.224951054343864</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="B349">
+        <v>0.20791169081775901</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="B350">
+        <v>0.190808995376544</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="B351">
+        <v>0.17364817766693</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="B352">
+        <v>0.15643446504023001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="B353">
+        <v>0.13917310096006499</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <f t="shared" si="5"/>
+        <v>173</v>
+      </c>
+      <c r="B354">
+        <v>0.121869343405147</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="B355">
+        <v>0.104528463267653</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="B356">
+        <v>8.7155742747658596E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="B357">
+        <v>6.9756473744125497E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="B358">
+        <v>5.23359562429438E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="B359">
+        <v>3.4899496702500699E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="B360">
+        <v>1.7452406437283401E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="B361" s="1">
+        <v>1.22464679914735E-16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001FA02B461C7C44458C746FB4463F635E" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed013cf3b203ec96e134b005fc9a27b8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5c19d36c-372d-4153-b7e8-467dd62d6bc4" xmlns:ns4="255970a2-f693-4eaa-a847-2869a24b88c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b27bceb963046d47b13ec1594a435d7b" ns3:_="" ns4:_="">
+    <xsd:import namespace="5c19d36c-372d-4153-b7e8-467dd62d6bc4"/>
+    <xsd:import namespace="255970a2-f693-4eaa-a847-2869a24b88c8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5c19d36c-372d-4153-b7e8-467dd62d6bc4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="255970a2-f693-4eaa-a847-2869a24b88c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{893B8A61-B48F-453B-9CED-94F5A2C854CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="255970a2-f693-4eaa-a847-2869a24b88c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5c19d36c-372d-4153-b7e8-467dd62d6bc4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF709A9-C28B-4683-AA19-00829D26425B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D4A908D-5364-4368-9BCB-6570B0CEC7FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c19d36c-372d-4153-b7e8-467dd62d6bc4"/>
+    <ds:schemaRef ds:uri="255970a2-f693-4eaa-a847-2869a24b88c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>